--- a/data files/Purchase Order/THEATEX.xlsx
+++ b/data files/Purchase Order/THEATEX.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80C73A9-76F0-45D9-9D34-59226BB87DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>To,</t>
   </si>
@@ -95,9 +96,6 @@
   </si>
   <si>
     <t>3-Ply/Layer Elastic Mask Premier (Bacteria Filtration &gt; 99%)</t>
-  </si>
-  <si>
-    <t>White Colour</t>
   </si>
   <si>
     <t>Kindly supply following items at your lowest rates:</t>
@@ -183,9 +181,6 @@
     </r>
   </si>
   <si>
-    <t>without brand name</t>
-  </si>
-  <si>
     <t>Filtra,C-Shape N-95/FFP2 (TT-FFP2 S), Ear Loop</t>
   </si>
   <si>
@@ -211,13 +206,25 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>White Colour ,without brand name</t>
+  </si>
+  <si>
+    <t>White Colour, without brand name</t>
+  </si>
+  <si>
+    <t>Blue Colour, without brand name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,7 +493,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,11 +513,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,7 +552,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -633,6 +639,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -653,7 +667,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -699,7 +719,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -729,9 +755,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -769,7 +795,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -803,6 +829,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -837,9 +864,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1012,39 +1040,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="47"/>
+    <col min="3" max="3" width="9.109375" style="46"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="45"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="22"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="45"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="24"/>
@@ -1052,12 +1080,12 @@
       <c r="H2" s="24"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.5">
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="26"/>
-      <c r="C3" s="45"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="22"/>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -1065,12 +1093,12 @@
       <c r="H3" s="24"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="A4" s="59" t="s">
-        <v>26</v>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="58" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="46"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="27"/>
       <c r="E4" s="24"/>
       <c r="F4" s="22"/>
@@ -1078,10 +1106,10 @@
       <c r="H4" s="29"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="45"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="22"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -1089,55 +1117,55 @@
       <c r="H5" s="30"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="45"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="60" t="s">
-        <v>27</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="45"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="45"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="45"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="58"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="G9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1147,23 +1175,23 @@
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="30"/>
       <c r="D11" s="1"/>
       <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
-      <c r="B12" s="37"/>
+      <c r="B12" s="36"/>
       <c r="D12" s="30"/>
       <c r="E12" s="1"/>
       <c r="F12" s="30"/>
@@ -1171,435 +1199,417 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="14"/>
       <c r="D14" s="4"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="14"/>
       <c r="D15" s="4"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="38" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75">
+      <c r="I16" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
-      <c r="G18" s="57"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
+      <c r="I18" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
-      <c r="G19" s="57"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75">
+      <c r="I19" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="63"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="10"/>
       <c r="E20" s="9"/>
-      <c r="G20" s="57"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75">
+      <c r="I20" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="48"/>
+        <v>33</v>
+      </c>
+      <c r="C21" s="47"/>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
-      <c r="G21" s="57"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="64"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75">
+      <c r="I21" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="63"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="48"/>
+        <v>34</v>
+      </c>
+      <c r="C22" s="47"/>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
-      <c r="G22" s="57"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="64"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75">
+      <c r="I22" s="54"/>
+      <c r="J22" s="63"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="48"/>
+        <v>36</v>
+      </c>
+      <c r="C23" s="47"/>
       <c r="D23" s="10"/>
       <c r="E23" s="9"/>
-      <c r="G23" s="57"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75">
+      <c r="I23" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="48"/>
+        <v>37</v>
+      </c>
+      <c r="C24" s="47"/>
       <c r="D24" s="10"/>
       <c r="E24" s="9"/>
-      <c r="G24" s="57"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75">
+      <c r="I24" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="10"/>
       <c r="E25" s="9"/>
-      <c r="G25" s="57"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75">
+      <c r="I25" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
-      <c r="G26" s="57"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="48"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="47"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
-      <c r="G27" s="57"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75">
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>10</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="48"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="47"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
-      <c r="G28" s="57"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75">
+      <c r="I28" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="63"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="C29" s="47"/>
       <c r="D29" s="10"/>
       <c r="E29" s="9"/>
-      <c r="G29" s="57"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75">
+      <c r="J29" s="63"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="48"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="10"/>
       <c r="E30" s="9"/>
-      <c r="G30" s="57"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="49"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="48"/>
       <c r="D31" s="10"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75">
+    <row r="32" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="49"/>
+      <c r="B32" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="48"/>
       <c r="D32" s="10"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75">
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="48"/>
+      <c r="B33" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="47"/>
       <c r="D33" s="4"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="48"/>
+      <c r="B34" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="47"/>
       <c r="D34" s="4"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="48"/>
+      <c r="B35" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="47"/>
       <c r="D35" s="4"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
-      <c r="C36" s="50"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="51"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="11"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="52"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="11"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="53"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75">
+      <c r="C39" s="52"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="50"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75">
+      <c r="C40" s="49"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="53"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="13"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="53"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="13"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="53"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="13"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="15"/>
-      <c r="C44" s="53"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="7"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="51" spans="3:5" ht="15.75">
+    <row r="51" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D51" s="13"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="3:5" ht="15.75">
+    <row r="52" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D52" s="19"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="3:5" ht="15.75">
-      <c r="C53" s="54"/>
+    <row r="53" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C53" s="53"/>
       <c r="D53" s="19"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="3:5" ht="15.75">
-      <c r="C54" s="54"/>
+    <row r="54" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C54" s="53"/>
       <c r="D54" s="19"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="3:5" ht="15.75">
+    <row r="55" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C55" s="14"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
@@ -1612,40 +1622,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="47"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="46"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="45"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="22"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="45"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="24"/>
@@ -1653,12 +1663,12 @@
       <c r="H2" s="24"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.5">
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="26"/>
-      <c r="C3" s="45"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="22"/>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -1666,12 +1676,12 @@
       <c r="H3" s="24"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="A4" s="59" t="s">
-        <v>26</v>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="58" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="46"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="27"/>
       <c r="E4" s="24"/>
       <c r="F4" s="22"/>
@@ -1679,10 +1689,10 @@
       <c r="H4" s="29"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="45"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="22"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -1690,57 +1700,57 @@
       <c r="H5" s="30"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="45"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="61" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="60" t="s">
-        <v>27</v>
+      <c r="G6" s="60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="45"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="45"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="45"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="G9" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1750,25 +1760,25 @@
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+      <c r="G10" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="30"/>
       <c r="D11" s="1"/>
       <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
-      <c r="B12" s="37"/>
+      <c r="B12" s="36"/>
       <c r="D12" s="30"/>
       <c r="E12" s="1"/>
       <c r="F12" s="30"/>
@@ -1776,315 +1786,309 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="14"/>
       <c r="D14" s="4"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="14"/>
       <c r="D15" s="4"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="38" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
+      <c r="I16" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
-      <c r="G18" s="57">
+      <c r="G18" s="56">
         <v>15000</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
+      <c r="I18" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
-      <c r="G19" s="57">
+      <c r="G19" s="56">
         <v>12000</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75">
+      <c r="I19" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="63"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="10"/>
       <c r="E20" s="9"/>
-      <c r="G20" s="57">
+      <c r="G20" s="56">
         <v>10000</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75">
+      <c r="I20" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="10"/>
       <c r="E21" s="9"/>
-      <c r="G21" s="57">
+      <c r="G21" s="56">
         <v>7000</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75">
+      <c r="I21" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="63"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="48"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
-      <c r="G22" s="57"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="64"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
+      <c r="I22" s="54"/>
+      <c r="J22" s="63"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="48"/>
+      <c r="B24" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="47"/>
       <c r="D24" s="10"/>
       <c r="E24" s="9"/>
-      <c r="G24" s="57"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="64"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75">
+      <c r="I24" s="54"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="48"/>
+      <c r="B25" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="47"/>
       <c r="D25" s="10"/>
       <c r="E25" s="9"/>
-      <c r="G25" s="57"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="64"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75">
+      <c r="I25" s="54"/>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="48"/>
+      <c r="B26" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="47"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
-      <c r="G26" s="57"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="14"/>
-      <c r="J26" s="64"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="48"/>
+      <c r="B27" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="47"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
-      <c r="G27" s="57"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
-      <c r="C28" s="49"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="49"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="10"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="48"/>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="47"/>
       <c r="D30" s="4"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
-      <c r="C31" s="48"/>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C31" s="47"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
-      <c r="C32" s="48"/>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C32" s="47"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75">
-      <c r="C33" s="50"/>
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C33" s="49"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
-      <c r="C34" s="51"/>
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C34" s="50"/>
       <c r="D34" s="11"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="52"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="11"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="53"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75">
+      <c r="C36" s="52"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="50"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75">
+      <c r="C37" s="49"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="53"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="13"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="53"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="13"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="53"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="13"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="53"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="7"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75">
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D48" s="13"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="3:5" ht="15.75">
+    <row r="49" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D49" s="19"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="3:5" ht="15.75">
-      <c r="C50" s="54"/>
+    <row r="50" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C50" s="53"/>
       <c r="D50" s="19"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="3:5" ht="15.75">
-      <c r="C51" s="54"/>
+    <row r="51" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C51" s="53"/>
       <c r="D51" s="19"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="3:5" ht="15.75">
+    <row r="52" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C52" s="14"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
@@ -2097,12 +2101,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data files/Purchase Order/THEATEX.xlsx
+++ b/data files/Purchase Order/THEATEX.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80C73A9-76F0-45D9-9D34-59226BB87DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04438744-3204-432B-9EC2-C2A03A064156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="2415" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -1043,21 +1043,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="46"/>
+    <col min="3" max="3" width="9.140625" style="46"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="44"/>
@@ -1069,7 +1069,7 @@
       <c r="H1" s="24"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="44"/>
@@ -1080,7 +1080,7 @@
       <c r="H2" s="24"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>25</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="H4" s="29"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="44"/>
@@ -1117,7 +1117,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>26</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="22"/>
       <c r="C8" s="44"/>
@@ -1152,7 +1152,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G9" s="57"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="36"/>
       <c r="D12" s="30"/>
@@ -1199,12 +1199,12 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -1213,13 +1213,13 @@
       <c r="D14" s="4"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="14"/>
       <c r="D15" s="4"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
@@ -1251,7 +1251,7 @@
       <c r="H17" s="41"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="J18" s="63"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="J19" s="63"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="J20" s="63"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J21" s="63"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="I22" s="54"/>
       <c r="J22" s="63"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>6</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J23" s="63"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>37</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="J24" s="63"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>7</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="J25" s="63"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>8</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="J26" s="63"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>9</v>
       </c>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="J27" s="63"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>10</v>
       </c>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="J28" s="63"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>11</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="J29" s="63"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="47"/>
@@ -1475,8 +1475,9 @@
       <c r="E30" s="9"/>
       <c r="G30" s="56"/>
       <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J30" s="63"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
@@ -1484,7 +1485,7 @@
       <c r="D31" s="10"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="61" t="s">
         <v>32</v>
@@ -1493,7 +1494,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="62" t="s">
         <v>29</v>
@@ -1502,7 +1503,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="62" t="s">
         <v>30</v>
@@ -1511,7 +1512,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="62" t="s">
         <v>31</v>
@@ -1520,13 +1521,13 @@
       <c r="D35" s="4"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="49"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>2</v>
       </c>
@@ -1535,81 +1536,81 @@
       <c r="D37" s="11"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="51"/>
       <c r="D38" s="11"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="10"/>
       <c r="C39" s="52"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="10"/>
       <c r="C40" s="49"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="10"/>
       <c r="C41" s="52"/>
       <c r="D41" s="13"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="10"/>
       <c r="C42" s="52"/>
       <c r="D42" s="13"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="3"/>
       <c r="C43" s="52"/>
       <c r="D43" s="13"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="15"/>
       <c r="C44" s="52"/>
       <c r="D44" s="7"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="51" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D51" s="13"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D52" s="19"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" s="53"/>
       <c r="D53" s="19"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" s="53"/>
       <c r="D54" s="19"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" s="14"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
@@ -1629,18 +1630,18 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="46"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="46"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="44"/>
@@ -1652,7 +1653,7 @@
       <c r="H1" s="24"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="44"/>
@@ -1663,7 +1664,7 @@
       <c r="H2" s="24"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1677,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>25</v>
       </c>
@@ -1689,7 +1690,7 @@
       <c r="H4" s="29"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="44"/>
@@ -1700,7 +1701,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>26</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="22"/>
       <c r="C8" s="44"/>
@@ -1735,7 +1736,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1776,7 +1777,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="36"/>
       <c r="D12" s="30"/>
@@ -1786,12 +1787,12 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -1800,13 +1801,13 @@
       <c r="D14" s="4"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="14"/>
       <c r="D15" s="4"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
@@ -1827,10 +1828,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>22</v>
@@ -1849,7 +1850,7 @@
       </c>
       <c r="J18" s="63"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>21</v>
@@ -1868,7 +1869,7 @@
       </c>
       <c r="J19" s="63"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -1887,7 +1888,7 @@
       </c>
       <c r="J20" s="63"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>17</v>
@@ -1906,7 +1907,7 @@
       </c>
       <c r="J21" s="63"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="47"/>
@@ -1917,12 +1918,12 @@
       <c r="I22" s="54"/>
       <c r="J22" s="63"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="61" t="s">
         <v>32</v>
@@ -1935,7 +1936,7 @@
       <c r="I24" s="54"/>
       <c r="J24" s="63"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="62" t="s">
         <v>29</v>
@@ -1948,7 +1949,7 @@
       <c r="I25" s="54"/>
       <c r="J25" s="63"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="62" t="s">
         <v>30</v>
@@ -1960,7 +1961,7 @@
       <c r="H26" s="14"/>
       <c r="J26" s="63"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="62" t="s">
         <v>31</v>
@@ -1971,13 +1972,13 @@
       <c r="G27" s="56"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="48"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>2</v>
       </c>
@@ -1986,7 +1987,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
         <v>39</v>
       </c>
@@ -1994,101 +1995,101 @@
       <c r="D30" s="4"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="47"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="47"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="49"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="50"/>
       <c r="D34" s="11"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="51"/>
       <c r="D35" s="11"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="10"/>
       <c r="C36" s="52"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="10"/>
       <c r="C37" s="49"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="10"/>
       <c r="C38" s="52"/>
       <c r="D38" s="13"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="10"/>
       <c r="C39" s="52"/>
       <c r="D39" s="13"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="3"/>
       <c r="C40" s="52"/>
       <c r="D40" s="13"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="15"/>
       <c r="C41" s="52"/>
       <c r="D41" s="7"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D48" s="13"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D49" s="19"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" s="53"/>
       <c r="D50" s="19"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" s="53"/>
       <c r="D51" s="19"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" s="14"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
@@ -2106,7 +2107,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
